--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_09-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_09-34.xlsx
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>Thursday, 15 January, 2026 9:34 AM</t>
@@ -249,10 +234,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -626,88 +611,52 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c t="s" r="B4" s="7">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c t="s" r="H4" s="8">
-        <v>8</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9">
-        <v>52</v>
-      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c t="s" r="N4" s="7">
-        <v>9</v>
-      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c t="s" r="B5" s="7">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c t="s" r="H5" s="8">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9">
-        <v>26</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c t="s" r="N5" s="7">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1">
+      <c t="s" r="A6" s="11">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c t="s" r="F6" s="12">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c t="s" r="I6" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="K6" s="10">
-        <v>78</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c t="s" r="A7" s="11">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c t="s" r="F7" s="12">
-        <v>13</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c t="s" r="I7" s="14">
-        <v>14</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -718,13 +667,10 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:N6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
